--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06DCA0-4C82-403E-8108-EFE6DB9AF7A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13834E99-6B44-4398-9FCE-3B1A308F6256}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +967,9 @@
       <c r="J18" t="s">
         <v>9</v>
       </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1036,6 +1039,9 @@
       <c r="J21" t="s">
         <v>9</v>
       </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1068,6 +1074,9 @@
       <c r="J22" t="s">
         <v>9</v>
       </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1100,6 +1109,9 @@
       <c r="J23" t="s">
         <v>9</v>
       </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1182,35 +1194,35 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <f>IF(C2="+",$C$26,0)</f>
+        <f t="shared" ref="C27:J36" si="0">IF(C2="+",$C$26,0)</f>
         <v>1.5</v>
       </c>
       <c r="D27">
-        <f>IF(D2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E27">
-        <f>IF(E2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F27">
-        <f>IF(F2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G27">
-        <f>IF(G2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H27">
-        <f>IF(H2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I27">
-        <f>IF(I2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J27">
-        <f>IF(J2="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K27">
@@ -1234,39 +1246,39 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <f>IF(C3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D28">
-        <f>IF(D3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E28">
-        <f>IF(E3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F28">
-        <f>IF(F3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>IF(G3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H28">
-        <f>IF(H3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I28">
-        <f>IF(I3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>IF(J3="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K50" si="0">SUM(C28:J28)</f>
+        <f t="shared" ref="K28:K50" si="1">SUM(C28:J28)</f>
         <v>7.5</v>
       </c>
       <c r="L28">
@@ -1277,7 +1289,7 @@
         <v>7.5</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N50" si="1">ROUND(K28+M28,0)</f>
+        <f t="shared" ref="N28:N50" si="2">ROUND(K28+M28,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -1286,50 +1298,50 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>IF(C4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D29">
-        <f>IF(D4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E29">
-        <f>IF(E4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F29">
-        <f>IF(F4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G29">
-        <f>IF(G4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H29">
-        <f>IF(H4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I29">
-        <f>IF(I4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J29">
-        <f>IF(J4="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L29">
         <v>0.9</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M50" si="2">L29*$M$26*K29/$M$26</f>
+        <f t="shared" ref="M29:M50" si="3">L29*$M$26*K29/$M$26</f>
         <v>10.800000000000002</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -1338,50 +1350,50 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>IF(C5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D30">
-        <f>IF(D5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E30">
-        <f>IF(E5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F30">
-        <f>IF(F5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G30">
-        <f>IF(G5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H30">
-        <f>IF(H5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I30">
-        <f>IF(I5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J30">
-        <f>IF(J5="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L30">
         <v>0.7</v>
       </c>
       <c r="M30">
+        <f t="shared" si="3"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="2"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1390,50 +1402,50 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <f>IF(C6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D31">
-        <f>IF(D6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E31">
-        <f>IF(E6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F31">
-        <f>IF(F6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G31">
-        <f>IF(G6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H31">
-        <f>IF(H6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I31">
-        <f>IF(I6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J31">
-        <f>IF(J6="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -1442,50 +1454,50 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <f>IF(C7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D32">
-        <f>IF(D7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IF(E7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F32">
-        <f>IF(F7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>IF(G7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H32">
-        <f>IF(H7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(I7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J32">
-        <f>IF(J7="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -1494,50 +1506,50 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <f>IF(C8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>IF(D8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(E8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>IF(F8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>IF(G8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(H8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(I8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>IF(J8="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,50 +1558,50 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <f>IF(C9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D34">
-        <f>IF(D9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E34">
-        <f>IF(E9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F34">
-        <f>IF(F9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G34">
-        <f>IF(G9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(H9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I34">
-        <f>IF(I9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J34">
-        <f>IF(J9="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -1598,50 +1610,50 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <f>IF(C10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>IF(D10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E35">
-        <f>IF(E10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IF(F10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G35">
-        <f>IF(G10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(H10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(I10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>IF(J10="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1650,50 +1662,50 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <f>IF(C11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D36">
-        <f>IF(D11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E36">
-        <f>IF(E11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F36">
-        <f>IF(F11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G36">
-        <f>IF(G11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(H11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I36">
-        <f>IF(I11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J36">
-        <f>IF(J11="+",$C$26,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -1702,50 +1714,50 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <f>IF(C12="+",$C$26,0)</f>
+        <f t="shared" ref="C37:J46" si="4">IF(C12="+",$C$26,0)</f>
         <v>1.5</v>
       </c>
       <c r="D37">
-        <f>IF(D12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E37">
-        <f>IF(E12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F37">
-        <f>IF(F12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G37">
-        <f>IF(G12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H37">
-        <f>IF(H12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I37">
-        <f>IF(I12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J37">
-        <f>IF(J12="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -1754,50 +1766,50 @@
         <v>22</v>
       </c>
       <c r="C38">
-        <f>IF(C13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D38">
-        <f>IF(D13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E38">
-        <f>IF(E13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F38">
-        <f>IF(F13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G38">
-        <f>IF(G13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H38">
-        <f>IF(H13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I38">
-        <f>IF(I13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J38">
-        <f>IF(J13="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L38">
         <v>0.85</v>
       </c>
       <c r="M38">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -1806,50 +1818,50 @@
         <v>23</v>
       </c>
       <c r="C39">
-        <f>IF(C14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>IF(D14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(E14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>IF(F14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>IF(G14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>IF(H14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>IF(I14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>IF(J14="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L39">
         <v>0.8</v>
       </c>
       <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1858,50 +1870,50 @@
         <v>24</v>
       </c>
       <c r="C40">
-        <f>IF(C15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D40">
-        <f>IF(D15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E40">
-        <f>IF(E15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F40">
-        <f>IF(F15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G40">
-        <f>IF(G15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H40">
-        <f>IF(H15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I40">
-        <f>IF(I15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J40">
-        <f>IF(J15="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L40">
         <v>0.9</v>
       </c>
       <c r="M40">
+        <f t="shared" si="3"/>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>10.800000000000002</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -1910,50 +1922,50 @@
         <v>25</v>
       </c>
       <c r="C41">
-        <f>IF(C16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D41">
-        <f>IF(D16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E41">
-        <f>IF(E16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F41">
-        <f>IF(F16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G41">
-        <f>IF(G16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H41">
-        <f>IF(H16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I41">
-        <f>IF(I16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J41">
-        <f>IF(J16="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L41">
         <v>0.85</v>
       </c>
       <c r="M41">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -1962,50 +1974,50 @@
         <v>26</v>
       </c>
       <c r="C42">
-        <f>IF(C17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D42">
-        <f>IF(D17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E42">
-        <f>IF(E17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F42">
-        <f>IF(F17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G42">
-        <f>IF(G17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H42">
-        <f>IF(H17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I42">
-        <f>IF(I17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J42">
-        <f>IF(J17="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -2014,50 +2026,50 @@
         <v>27</v>
       </c>
       <c r="C43">
-        <f>IF(C18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D43">
-        <f>IF(D18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E43">
-        <f>IF(E18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F43">
-        <f>IF(F18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G43">
-        <f>IF(G18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H43">
-        <f>IF(H18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I43">
-        <f>IF(I18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J43">
-        <f>IF(J18="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L43">
         <v>0.85</v>
       </c>
       <c r="M43">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2066,50 +2078,50 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <f>IF(C19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>IF(D19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>IF(E19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>IF(F19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>IF(G19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(H19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(I19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>IF(J19="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2118,50 +2130,50 @@
         <v>29</v>
       </c>
       <c r="C45">
-        <f>IF(C20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D45">
-        <f>IF(D20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E45">
-        <f>IF(E20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F45">
-        <f>IF(F20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G45">
-        <f>IF(G20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H45">
-        <f>IF(H20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I45">
-        <f>IF(I20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J45">
-        <f>IF(J20="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2170,50 +2182,50 @@
         <v>30</v>
       </c>
       <c r="C46">
-        <f>IF(C21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="D46">
-        <f>IF(D21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E46">
-        <f>IF(E21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F46">
-        <f>IF(F21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G46">
-        <f>IF(G21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>IF(H21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>IF(I21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="J46">
-        <f>IF(J21="+",$C$26,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
       <c r="M46">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2222,50 +2234,50 @@
         <v>31</v>
       </c>
       <c r="C47">
-        <f>IF(C22="+",$C$26,0)</f>
+        <f t="shared" ref="C47:J56" si="5">IF(C22="+",$C$26,0)</f>
         <v>1.5</v>
       </c>
       <c r="D47">
-        <f>IF(D22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E47">
-        <f>IF(E22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F47">
-        <f>IF(F22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G47">
-        <f>IF(G22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H47">
-        <f>IF(H22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I47">
-        <f>IF(I22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J47">
-        <f>IF(J22="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L47">
         <v>0.6</v>
       </c>
       <c r="M47">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="2"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2274,50 +2286,50 @@
         <v>32</v>
       </c>
       <c r="C48">
-        <f>IF(C23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D48">
-        <f>IF(D23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E48">
-        <f>IF(E23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F48">
-        <f>IF(F23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G48">
-        <f>IF(G23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H48">
-        <f>IF(H23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I48">
-        <f>IF(I23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J48">
-        <f>IF(J23="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L48">
         <v>0.95</v>
       </c>
       <c r="M48">
+        <f t="shared" si="3"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="2"/>
-        <v>11.399999999999999</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -2326,50 +2338,50 @@
         <v>33</v>
       </c>
       <c r="C49">
-        <f>IF(C24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D49">
-        <f>IF(D24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E49">
-        <f>IF(E24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F49">
-        <f>IF(F24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G49">
-        <f>IF(G24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H49">
-        <f>IF(H24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I49">
-        <f>IF(I24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J49">
-        <f>IF(J24="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2378,50 +2390,50 @@
         <v>34</v>
       </c>
       <c r="C50">
-        <f>IF(C25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D50">
-        <f>IF(D25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E50">
-        <f>IF(E25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>IF(F25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G50">
-        <f>IF(G25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H50">
-        <f>IF(H25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I50">
-        <f>IF(I25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J50">
-        <f>IF(J25="+",$C$26,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L50">
         <v>0.8</v>
       </c>
       <c r="M50">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>

--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13834E99-6B44-4398-9FCE-3B1A308F6256}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF19FC-4074-4D26-9E31-BDA4F6A60C39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="50">
   <si>
     <t>LB1</t>
   </si>
@@ -125,18 +125,72 @@
   </si>
   <si>
     <t>Шепелев Иван Александрович</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LB10</t>
+  </si>
+  <si>
+    <t>LB10.1</t>
+  </si>
+  <si>
+    <t>LB11</t>
+  </si>
+  <si>
+    <t>LB12</t>
+  </si>
+  <si>
+    <t>LB13</t>
+  </si>
+  <si>
+    <t>LB14</t>
+  </si>
+  <si>
+    <t>LB15</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Lec</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Итоговый рейтинг</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -148,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,13 +210,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +532,7 @@
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +560,35 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,8 +622,34 @@
       <c r="K2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2">
+        <v>10</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -544,8 +674,26 @@
       <c r="K3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,8 +727,34 @@
       <c r="K4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -614,8 +788,32 @@
       <c r="K5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -649,8 +847,34 @@
       <c r="K6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
+        <v>10</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -672,16 +896,40 @@
       <c r="J7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -712,8 +960,28 @@
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="2">
+        <v>10</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -726,8 +994,24 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -755,8 +1039,34 @@
       <c r="J11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -790,8 +1100,36 @@
       <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2">
+        <v>10</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -825,16 +1163,54 @@
       <c r="K13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="2">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -868,8 +1244,38 @@
       <c r="K15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="2">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -903,8 +1309,38 @@
       <c r="K16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2">
+        <v>10</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -935,8 +1371,28 @@
       <c r="J17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -970,16 +1426,54 @@
       <c r="K18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="2">
+        <v>10</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1013,8 +1507,34 @@
       <c r="K20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="2">
+        <v>10</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1042,8 +1562,33 @@
       <c r="K21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2">
+        <v>10</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1077,8 +1622,28 @@
       <c r="K22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>10</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1112,8 +1677,36 @@
       <c r="K23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="2">
+        <v>10</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1144,8 +1737,30 @@
       <c r="J24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1176,1265 +1791,2847 @@
       <c r="K25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>1.5</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="Z26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>4.375</v>
+      </c>
+      <c r="L27" t="s">
         <v>10</v>
       </c>
-      <c r="M26">
-        <f>8*C26</f>
+      <c r="M27">
+        <f>8*C27</f>
+        <v>35</v>
+      </c>
+      <c r="X27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <f>M27</f>
+        <v>35</v>
+      </c>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+      <c r="AA27">
+        <f>Y27+M27+K6+T6+Z27</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <f>IF(C2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="D28">
+        <f>IF(D2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="E28">
+        <f>IF(E2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="F28">
+        <f>IF(F2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="G28">
+        <f>IF(G2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="H28">
+        <f>IF(H2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="I28">
+        <f>IF(I2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="J28">
+        <f>IF(J2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="K28">
+        <f>SUM(C28:J28)</f>
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>0.8</v>
+      </c>
+      <c r="M28">
+        <f>L28*$M$27*K28/$M$27</f>
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <f>ROUND(K28+M28,0)</f>
+        <v>63</v>
+      </c>
+      <c r="O28">
+        <f>IF(L2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:U28" si="0">IF(M2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="V28">
+        <f>IF(S2="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="W28">
+        <f>SUM(O28:V28)</f>
+        <v>26.25</v>
+      </c>
+      <c r="X28">
+        <v>0.9</v>
+      </c>
+      <c r="Y28">
+        <f>X28*W28</f>
+        <v>23.625</v>
+      </c>
+      <c r="AA28">
+        <f>Y28+M28+Z28+K2+T2</f>
+        <v>69.625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:J36" si="0">IF(C2="+",$C$26,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K27">
-        <f>SUM(C27:J27)</f>
-        <v>12</v>
-      </c>
-      <c r="L27">
-        <v>0.8</v>
-      </c>
-      <c r="M27">
-        <f>L27*$M$26*K27/$M$26</f>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="N27">
-        <f>ROUND(K27+M27,0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ref="K28:K50" si="1">SUM(C28:J28)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L28">
+      <c r="C29">
+        <f>IF(C3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="D29">
+        <f>IF(D3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="E29">
+        <f>IF(E3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="F29">
+        <f>IF(F3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>IF(G3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="H29">
+        <f>IF(H3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="I29">
+        <f>IF(I3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>IF(J3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K51" si="1">SUM(C29:J29)</f>
+        <v>21.875</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="M28">
-        <f>L28*$M$26*K28/$M$26</f>
-        <v>7.5</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ref="N28:N50" si="2">ROUND(K28+M28,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="M29">
+        <f>L29*$M$27*K29/$M$27</f>
+        <v>21.875</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N51" si="2">ROUND(K29+M29,0)</f>
+        <v>44</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O51" si="3">IF(L3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P51" si="4">IF(M3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q51" si="5">IF(N3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R51" si="6">IF(O3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S51" si="7">IF(P3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T51" si="8">IF(Q3="+",$C$27,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:V44" si="9">IF(R3="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W51" si="10">SUM(O29:V29)</f>
+        <v>13.125</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ref="Y29:Y51" si="11">X29*W29</f>
+        <v>13.125</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ref="AA29:AA51" si="12">Y29+M29+Z29+K3+T3</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L29">
-        <v>0.9</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ref="M29:M50" si="3">L29*$M$26*K29/$M$26</f>
-        <v>10.800000000000002</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(C4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(D4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(E4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(F4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(G4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(H4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(I4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J4="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L30">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>8.3999999999999986</v>
+        <f t="shared" ref="M30:M51" si="13">L30*$M$27*K30/$M$27</f>
+        <v>31.5</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:V51" si="14">IF(S4="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X30">
+        <v>0.9</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>23.625</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="12"/>
+        <v>65.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(C5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(D5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(E5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(F5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(G5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(H5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(I5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J5="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>24.5</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X31">
+        <v>0.7</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>18.375</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="12"/>
+        <v>47.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(C6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(D6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(E6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(G6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(H6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(I6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J6="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
+        <f t="shared" si="13"/>
+        <v>17.5</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="11"/>
+        <v>13.125</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="12"/>
+        <v>50.625</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(C7="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f>IF(D7="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(E7="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>IF(F7="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(G7="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>IF(H7="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I7="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(J7="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.875</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>10.9375</v>
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="12"/>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(C8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(D8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(E8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(F8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>IF(G8="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(H8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(I8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J8="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(C9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(D9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(E9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(F9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>IF(G9="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(H9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(J9="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>30.625</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>30.625</v>
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>13.125</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="11"/>
+        <v>13.125</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="12"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(C10="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(D10="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(E10="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(F10="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>IF(G10="+",$C$27,0)</f>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(H10="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(I10="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J10="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
+        <f t="shared" si="13"/>
+        <v>8.75</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>8.75</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:J46" si="4">IF(C12="+",$C$26,0)</f>
-        <v>1.5</v>
+        <f>IF(C11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(D11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(E11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(F11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(G11="+",$C$27,0)</f>
+        <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(H11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(I11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>IF(J11="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>30.625</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>30.625</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="10"/>
+        <v>30.625</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="12"/>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" ref="C38:J47" si="15">IF(C12="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L38">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <f t="shared" si="13"/>
+        <v>35</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>30.625</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="12"/>
+        <v>85.625</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
       <c r="C39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L39">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>29.75</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>10.800000000000002</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0.8</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L41">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <f t="shared" si="13"/>
+        <v>31.5</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="12"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L42">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>29.75</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="12"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L43">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <f t="shared" si="13"/>
+        <v>17.5</v>
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>17.5</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>29.75</v>
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ref="U45:U51" si="16">IF(R19="+",$C$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L46">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>8.1</v>
+        <f t="shared" si="13"/>
+        <v>35</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="12"/>
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J56" si="5">IF(C22="+",$C$26,0)</f>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="J47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="15"/>
+        <v>4.375</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>26.25</v>
       </c>
       <c r="L47">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="13"/>
+        <v>23.625</v>
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>26.25</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="12"/>
+        <v>67.875</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" ref="C48:J51" si="17">IF(C22="+",$C$27,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L48">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>11.399999999999999</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>13.125</v>
+      </c>
+      <c r="X48">
+        <v>0.6</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="11"/>
+        <v>7.875</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="12"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>33.25</v>
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="10"/>
+        <v>30.625</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="12"/>
+        <v>83.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>35</v>
       </c>
       <c r="L50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>8.4</v>
+        <f t="shared" si="13"/>
+        <v>35</v>
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="10"/>
+        <v>21.875</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="11"/>
+        <v>21.875</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="12"/>
+        <v>56.875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="17"/>
+        <v>4.375</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>30.625</v>
+      </c>
+      <c r="L51">
+        <v>0.8</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="13"/>
+        <v>24.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="10"/>
+        <v>21.875</v>
+      </c>
+      <c r="X51">
+        <v>0.8</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4">
+        <f>ROUND(AA28,0)</f>
+        <v>70</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f>IF(C54&gt;=55,"Зачет","-")</f>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" ref="C55:C77" si="18">ROUND(AA29,0)</f>
+        <v>43</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f t="shared" ref="D55:D77" si="19">IF(C55&gt;=55,"Зачет","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="D56" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="D58" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>8</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>9</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>13</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>14</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="18"/>
+        <v>87</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>15</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>18</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>19</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>20</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>21</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="D74" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>22</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>23</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="D76" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>24</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>

--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF4982-D3B8-439E-80FA-4AE24B170B48}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544976EC-9DCD-4854-86F5-19696059C3D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="48">
   <si>
     <t>LB1</t>
   </si>
@@ -520,7 +520,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,25 +965,39 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2">
+        <v>10</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1038,7 +1052,9 @@
       <c r="S10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2">
+        <v>10</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2537,7 +2553,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -2565,22 +2581,22 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -2592,15 +2608,15 @@
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T33">
         <f t="shared" si="7"/>
@@ -2616,21 +2632,21 @@
       </c>
       <c r="W33">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="Z33">
         <v>6</v>
       </c>
       <c r="AA33">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
@@ -2732,7 +2748,7 @@
       </c>
       <c r="AA34">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
@@ -3862,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J55" si="16">IF(C22="+",$C$25,0)</f>
+        <f t="shared" ref="C46:J47" si="16">IF(C22="+",$C$25,0)</f>
         <v>4.5</v>
       </c>
       <c r="D46">
@@ -4196,11 +4212,11 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D57" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4212,7 +4228,7 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="17"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D58" s="5" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544976EC-9DCD-4854-86F5-19696059C3D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F7848-6F06-4D94-A38F-3EDC5713E686}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="48">
   <si>
     <t>LB1</t>
   </si>
@@ -517,10 +517,10 @@
   <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57:D58"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C50:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,15 +668,22 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>9</v>
@@ -1969,22 +1976,22 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27:K47" si="11">SUM(C27:J27)</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27:N47" si="12">ROUND(K27+M27,0)</f>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -1992,7 +1999,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
@@ -2000,7 +2007,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S27">
         <f t="shared" si="6"/>
@@ -2020,21 +2027,21 @@
       </c>
       <c r="W27">
         <f t="shared" ref="W27:W47" si="13">SUM(O27:V27)</f>
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27:Y47" si="14">X27*W27</f>
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="Z27">
         <v>7</v>
       </c>
       <c r="AA27">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
@@ -4099,7 +4106,6 @@
         <v>11</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" ref="C50:C71" si="17">ROUND(AA26,0)</f>
         <v>79</v>
       </c>
       <c r="D50" s="5" t="str">
@@ -4115,12 +4121,12 @@
         <v>12</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="17"/>
-        <v>51</v>
+        <f t="shared" ref="C50:C71" si="17">ROUND(AA27,0)</f>
+        <v>65</v>
       </c>
       <c r="D51" s="5" t="str">
         <f t="shared" ref="D51:D71" si="18">IF(C51&gt;=55,"Зачет","-")</f>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">

--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F7848-6F06-4D94-A38F-3EDC5713E686}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49E4D8-17D3-4532-AAAF-B2D750A3C7D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,10 @@
   <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C50:D71"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,6 +1370,9 @@
       </c>
       <c r="J16" t="s">
         <v>9</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3367,7 +3370,7 @@
       </c>
       <c r="AA40">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
@@ -4121,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C50:C71" si="17">ROUND(AA27,0)</f>
+        <f t="shared" ref="C51:C71" si="17">ROUND(AA27,0)</f>
         <v>65</v>
       </c>
       <c r="D51" s="5" t="str">
@@ -4330,7 +4333,7 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D02/2D02.xlsx
+++ b/2021/scores/2D02/2D02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49E4D8-17D3-4532-AAAF-B2D750A3C7D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278B05F-0A60-4C86-AAE7-6602EEBC0162}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,10 @@
   <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1390,9 @@
       <c r="S16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2">
+        <v>10</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -3370,7 +3372,7 @@
       </c>
       <c r="AA40">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
@@ -4333,11 +4335,11 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
